--- a/va_facility_data_2025-02-20/Salem VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Salem%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Salem VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Salem%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R148dccc1862b4e74b6cc3f1655d878b9"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R866327b7c2054e5789838d2c94361f71"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re6750295e9854c6e901e799e6c0f6657"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rebc87bb68f9e4124aaeeef292c0f33ba"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb1f43a7908fc46229bbbd1ae68919c40"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Race215a05b6848d29b576a6a27fcccd0"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Re45e21c7ac99441cbfe63abd1674568f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R3cbc88c86eec463cba7286b2a2d7802b"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf18382d8ba8648a6a080dead8919a561"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rdfd757ab7aa34b54a98498d80969b149"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc0807e9e17dd421a8ea634822899241e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R54b4f87449544d2e8b9373dea824282c"/>
   </x:sheets>
 </x:workbook>
 </file>
